--- a/xlsx/block.xlsx
+++ b/xlsx/block.xlsx
@@ -358,7 +358,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>-0.17963332865963275</v>
+        <v>-0.17283283987199052</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -366,7 +366,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-0.199867786729224</v>
+        <v>-0.1825748119740733</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -374,7 +374,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-0.19837238266014753</v>
+        <v>-0.15228307142185568</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -382,7 +382,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.20502528676143802</v>
+        <v>-0.09037932232550941</v>
       </c>
     </row>
     <row r="5" spans="1:2">
